--- a/Xports/UD_French-ParTUT/VERB-direct-obj.xlsx
+++ b/Xports/UD_French-ParTUT/VERB-direct-obj.xlsx
@@ -10162,6 +10162,9 @@
     <t>5</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
@@ -10199,9 +10202,6 @@
   </si>
   <si>
     <t>50</t>
-  </si>
-  <si>
-    <t>16</t>
   </si>
   <si>
     <t>25</t>
@@ -11659,7 +11659,7 @@
         <v>3595</v>
       </c>
       <c r="K7" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L7" t="s">
         <v>3644</v>
@@ -11706,7 +11706,7 @@
         <v>3596</v>
       </c>
       <c r="K8" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="L8" t="s">
         <v>3645</v>
@@ -11812,7 +11812,7 @@
         <v>3654</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -11873,7 +11873,7 @@
         <v>2317</v>
       </c>
       <c r="E12" t="s">
-        <v>3380</v>
+        <v>3382</v>
       </c>
       <c r="F12" t="s">
         <v>1697</v>
@@ -11891,10 +11891,10 @@
         <v>3596</v>
       </c>
       <c r="K12" t="s">
-        <v>3631</v>
+        <v>3380</v>
       </c>
       <c r="L12" t="s">
-        <v>3642</v>
+        <v>3643</v>
       </c>
       <c r="M12" t="s">
         <v>3654</v>
@@ -12146,7 +12146,7 @@
         <v>2323</v>
       </c>
       <c r="E18" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F18" t="s">
         <v>1703</v>
@@ -12193,7 +12193,7 @@
         <v>2324</v>
       </c>
       <c r="E19" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F19" t="s">
         <v>1704</v>
@@ -12211,7 +12211,7 @@
         <v>3596</v>
       </c>
       <c r="K19" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L19" t="s">
         <v>3645</v>
@@ -12240,7 +12240,7 @@
         <v>2325</v>
       </c>
       <c r="E20" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F20" t="s">
         <v>1705</v>
@@ -12287,7 +12287,7 @@
         <v>2326</v>
       </c>
       <c r="E21" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F21" t="s">
         <v>1706</v>
@@ -12305,7 +12305,7 @@
         <v>3597</v>
       </c>
       <c r="K21" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L21" t="s">
         <v>3643</v>
@@ -12334,7 +12334,7 @@
         <v>2327</v>
       </c>
       <c r="E22" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F22" t="s">
         <v>1707</v>
@@ -12381,7 +12381,7 @@
         <v>2328</v>
       </c>
       <c r="E23" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F23" t="s">
         <v>1708</v>
@@ -12399,7 +12399,7 @@
         <v>3596</v>
       </c>
       <c r="K23" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L23" t="s">
         <v>3643</v>
@@ -12428,7 +12428,7 @@
         <v>2329</v>
       </c>
       <c r="E24" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F24" t="s">
         <v>1709</v>
@@ -12446,7 +12446,7 @@
         <v>3596</v>
       </c>
       <c r="K24" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L24" t="s">
         <v>3646</v>
@@ -12475,7 +12475,7 @@
         <v>2330</v>
       </c>
       <c r="E25" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F25" t="s">
         <v>1710</v>
@@ -12522,7 +12522,7 @@
         <v>2331</v>
       </c>
       <c r="E26" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="F26" t="s">
         <v>1711</v>
@@ -12540,7 +12540,7 @@
         <v>3598</v>
       </c>
       <c r="K26" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L26" t="s">
         <v>3647</v>
@@ -12569,7 +12569,7 @@
         <v>2332</v>
       </c>
       <c r="E27" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F27" t="s">
         <v>1700</v>
@@ -12587,7 +12587,7 @@
         <v>3596</v>
       </c>
       <c r="K27" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L27" t="s">
         <v>3643</v>
@@ -12616,7 +12616,7 @@
         <v>2333</v>
       </c>
       <c r="E28" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="F28" t="s">
         <v>1712</v>
@@ -12710,7 +12710,7 @@
         <v>2335</v>
       </c>
       <c r="E30" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="F30" t="s">
         <v>1714</v>
@@ -12757,7 +12757,7 @@
         <v>2336</v>
       </c>
       <c r="E31" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F31" t="s">
         <v>1689</v>
@@ -12804,7 +12804,7 @@
         <v>2337</v>
       </c>
       <c r="E32" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="F32" t="s">
         <v>1714</v>
@@ -12851,7 +12851,7 @@
         <v>2338</v>
       </c>
       <c r="E33" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F33" t="s">
         <v>1689</v>
@@ -12992,7 +12992,7 @@
         <v>2341</v>
       </c>
       <c r="E36" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F36" t="s">
         <v>1697</v>
@@ -13039,7 +13039,7 @@
         <v>2342</v>
       </c>
       <c r="E37" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="F37" t="s">
         <v>1710</v>
@@ -13086,7 +13086,7 @@
         <v>2343</v>
       </c>
       <c r="E38" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F38" t="s">
         <v>1708</v>
@@ -13104,7 +13104,7 @@
         <v>3596</v>
       </c>
       <c r="K38" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L38" t="s">
         <v>3643</v>
@@ -13133,7 +13133,7 @@
         <v>2331</v>
       </c>
       <c r="E39" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="F39" t="s">
         <v>1711</v>
@@ -13151,7 +13151,7 @@
         <v>3598</v>
       </c>
       <c r="K39" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L39" t="s">
         <v>3647</v>
@@ -13180,7 +13180,7 @@
         <v>2344</v>
       </c>
       <c r="E40" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F40" t="s">
         <v>1697</v>
@@ -13198,7 +13198,7 @@
         <v>3596</v>
       </c>
       <c r="K40" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L40" t="s">
         <v>3646</v>
@@ -13227,7 +13227,7 @@
         <v>2345</v>
       </c>
       <c r="E41" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="F41" t="s">
         <v>1712</v>
@@ -13368,7 +13368,7 @@
         <v>2348</v>
       </c>
       <c r="E44" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F44" t="s">
         <v>1717</v>
@@ -13415,7 +13415,7 @@
         <v>2349</v>
       </c>
       <c r="E45" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="F45" t="s">
         <v>1718</v>
@@ -13462,7 +13462,7 @@
         <v>2350</v>
       </c>
       <c r="E46" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F46" t="s">
         <v>1719</v>
@@ -13509,7 +13509,7 @@
         <v>2351</v>
       </c>
       <c r="E47" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="F47" t="s">
         <v>1720</v>
@@ -13556,7 +13556,7 @@
         <v>2352</v>
       </c>
       <c r="E48" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F48" t="s">
         <v>1721</v>
@@ -13791,7 +13791,7 @@
         <v>2357</v>
       </c>
       <c r="E53" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F53" t="s">
         <v>1726</v>
@@ -13885,7 +13885,7 @@
         <v>2359</v>
       </c>
       <c r="E55" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="F55" t="s">
         <v>1693</v>
@@ -14091,7 +14091,7 @@
         <v>3602</v>
       </c>
       <c r="K59" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="L59" t="s">
         <v>3647</v>
@@ -14120,7 +14120,7 @@
         <v>2364</v>
       </c>
       <c r="E60" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="F60" t="s">
         <v>1730</v>
@@ -14232,7 +14232,7 @@
         <v>3602</v>
       </c>
       <c r="K62" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="L62" t="s">
         <v>3648</v>
@@ -14355,7 +14355,7 @@
         <v>2369</v>
       </c>
       <c r="E65" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F65" t="s">
         <v>1735</v>
@@ -14402,7 +14402,7 @@
         <v>2370</v>
       </c>
       <c r="E66" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F66" t="s">
         <v>1736</v>
@@ -14449,7 +14449,7 @@
         <v>2371</v>
       </c>
       <c r="E67" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F67" t="s">
         <v>1737</v>
@@ -14608,7 +14608,7 @@
         <v>3602</v>
       </c>
       <c r="K70" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="L70" t="s">
         <v>3644</v>
@@ -14749,7 +14749,7 @@
         <v>3596</v>
       </c>
       <c r="K73" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="L73" t="s">
         <v>3646</v>
@@ -14778,7 +14778,7 @@
         <v>2378</v>
       </c>
       <c r="E74" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="F74" t="s">
         <v>1743</v>
@@ -14796,7 +14796,7 @@
         <v>3596</v>
       </c>
       <c r="K74" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="L74" t="s">
         <v>3643</v>
@@ -14843,7 +14843,7 @@
         <v>3593</v>
       </c>
       <c r="K75" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="L75" t="s">
         <v>3648</v>
@@ -14890,7 +14890,7 @@
         <v>3596</v>
       </c>
       <c r="K76" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L76" t="s">
         <v>3649</v>
@@ -14919,7 +14919,7 @@
         <v>2381</v>
       </c>
       <c r="E77" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F77" t="s">
         <v>1746</v>
@@ -14966,7 +14966,7 @@
         <v>2382</v>
       </c>
       <c r="E78" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F78" t="s">
         <v>1747</v>
@@ -14984,7 +14984,7 @@
         <v>3593</v>
       </c>
       <c r="K78" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L78" t="s">
         <v>3644</v>
@@ -15013,7 +15013,7 @@
         <v>2383</v>
       </c>
       <c r="E79" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F79" t="s">
         <v>1748</v>
@@ -15107,7 +15107,7 @@
         <v>2385</v>
       </c>
       <c r="E81" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="F81" t="s">
         <v>1750</v>
@@ -15219,7 +15219,7 @@
         <v>3596</v>
       </c>
       <c r="K83" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L83" t="s">
         <v>3646</v>
@@ -15248,7 +15248,7 @@
         <v>2388</v>
       </c>
       <c r="E84" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F84" t="s">
         <v>1752</v>
@@ -15313,7 +15313,7 @@
         <v>3608</v>
       </c>
       <c r="K85" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L85" t="s">
         <v>3647</v>
@@ -15342,7 +15342,7 @@
         <v>2390</v>
       </c>
       <c r="E86" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F86" t="s">
         <v>1754</v>
@@ -15624,7 +15624,7 @@
         <v>2395</v>
       </c>
       <c r="E92" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F92" t="s">
         <v>1760</v>
@@ -15671,7 +15671,7 @@
         <v>2381</v>
       </c>
       <c r="E93" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F93" t="s">
         <v>1761</v>
@@ -15736,7 +15736,7 @@
         <v>3596</v>
       </c>
       <c r="K94" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L94" t="s">
         <v>3646</v>
@@ -15812,7 +15812,7 @@
         <v>2398</v>
       </c>
       <c r="E96" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F96" t="s">
         <v>1764</v>
@@ -15830,7 +15830,7 @@
         <v>3602</v>
       </c>
       <c r="K96" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L96" t="s">
         <v>3647</v>
@@ -16018,7 +16018,7 @@
         <v>3611</v>
       </c>
       <c r="K100" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="L100" t="s">
         <v>3645</v>
@@ -16112,7 +16112,7 @@
         <v>3593</v>
       </c>
       <c r="K102" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="L102" t="s">
         <v>3648</v>
@@ -16188,7 +16188,7 @@
         <v>2406</v>
       </c>
       <c r="E104" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F104" t="s">
         <v>1721</v>
@@ -16347,7 +16347,7 @@
         <v>3596</v>
       </c>
       <c r="K107" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L107" t="s">
         <v>3646</v>
@@ -16423,7 +16423,7 @@
         <v>2411</v>
       </c>
       <c r="E109" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F109" t="s">
         <v>1742</v>
@@ -16470,7 +16470,7 @@
         <v>2412</v>
       </c>
       <c r="E110" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F110" t="s">
         <v>1774</v>
@@ -16488,7 +16488,7 @@
         <v>3593</v>
       </c>
       <c r="K110" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L110" t="s">
         <v>3650</v>
@@ -16752,7 +16752,7 @@
         <v>2418</v>
       </c>
       <c r="E116" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F116" t="s">
         <v>1780</v>
@@ -16893,7 +16893,7 @@
         <v>2420</v>
       </c>
       <c r="E119" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="F119" t="s">
         <v>1783</v>
@@ -17034,7 +17034,7 @@
         <v>2423</v>
       </c>
       <c r="E122" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F122" t="s">
         <v>1786</v>
@@ -17146,7 +17146,7 @@
         <v>3596</v>
       </c>
       <c r="K124" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L124" t="s">
         <v>3646</v>
@@ -17193,7 +17193,7 @@
         <v>3596</v>
       </c>
       <c r="K125" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="L125" t="s">
         <v>3646</v>
@@ -17222,7 +17222,7 @@
         <v>2427</v>
       </c>
       <c r="E126" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F126" t="s">
         <v>1790</v>
@@ -17316,7 +17316,7 @@
         <v>2429</v>
       </c>
       <c r="E128" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F128" t="s">
         <v>1772</v>
@@ -17363,7 +17363,7 @@
         <v>2430</v>
       </c>
       <c r="E129" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F129" t="s">
         <v>1789</v>
@@ -17457,7 +17457,7 @@
         <v>2431</v>
       </c>
       <c r="E131" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F131" t="s">
         <v>1791</v>
@@ -17551,7 +17551,7 @@
         <v>2433</v>
       </c>
       <c r="E133" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F133" t="s">
         <v>1794</v>
@@ -17757,7 +17757,7 @@
         <v>3602</v>
       </c>
       <c r="K137" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="L137" t="s">
         <v>3644</v>
@@ -17974,7 +17974,7 @@
         <v>2442</v>
       </c>
       <c r="E142" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="F142" t="s">
         <v>1803</v>
@@ -18039,7 +18039,7 @@
         <v>3596</v>
       </c>
       <c r="K143" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L143" t="s">
         <v>3646</v>
@@ -18162,7 +18162,7 @@
         <v>2446</v>
       </c>
       <c r="E146" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="F146" t="s">
         <v>1807</v>
@@ -18256,7 +18256,7 @@
         <v>2448</v>
       </c>
       <c r="E148" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F148" t="s">
         <v>1809</v>
@@ -18321,7 +18321,7 @@
         <v>3596</v>
       </c>
       <c r="K149" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L149" t="s">
         <v>3645</v>
@@ -18415,7 +18415,7 @@
         <v>3613</v>
       </c>
       <c r="K151" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="L151" t="s">
         <v>3648</v>
@@ -18509,7 +18509,7 @@
         <v>3593</v>
       </c>
       <c r="K153" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="L153" t="s">
         <v>3648</v>
@@ -18556,7 +18556,7 @@
         <v>3593</v>
       </c>
       <c r="K154" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="L154" t="s">
         <v>3644</v>
@@ -18697,7 +18697,7 @@
         <v>3596</v>
       </c>
       <c r="K157" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L157" t="s">
         <v>3646</v>
@@ -18791,7 +18791,7 @@
         <v>3596</v>
       </c>
       <c r="K159" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="L159" t="s">
         <v>3646</v>
@@ -18820,7 +18820,7 @@
         <v>2459</v>
       </c>
       <c r="E160" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F160" t="s">
         <v>1818</v>
@@ -18961,7 +18961,7 @@
         <v>2462</v>
       </c>
       <c r="E163" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F163" t="s">
         <v>1820</v>
@@ -19120,7 +19120,7 @@
         <v>3596</v>
       </c>
       <c r="K166" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L166" t="s">
         <v>3646</v>
@@ -19149,7 +19149,7 @@
         <v>2466</v>
       </c>
       <c r="E167" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F167" t="s">
         <v>1824</v>
@@ -19243,7 +19243,7 @@
         <v>2468</v>
       </c>
       <c r="E169" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F169" t="s">
         <v>1825</v>
@@ -19290,7 +19290,7 @@
         <v>2469</v>
       </c>
       <c r="E170" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F170" t="s">
         <v>1826</v>
@@ -19355,7 +19355,7 @@
         <v>3596</v>
       </c>
       <c r="K171" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L171" t="s">
         <v>3646</v>
@@ -19431,7 +19431,7 @@
         <v>2472</v>
       </c>
       <c r="E173" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F173" t="s">
         <v>1828</v>
@@ -19478,7 +19478,7 @@
         <v>2473</v>
       </c>
       <c r="E174" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F174" t="s">
         <v>1829</v>
@@ -19919,7 +19919,7 @@
         <v>3596</v>
       </c>
       <c r="K183" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="L183" t="s">
         <v>3646</v>
@@ -19966,7 +19966,7 @@
         <v>3618</v>
       </c>
       <c r="K184" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="L184" t="s">
         <v>3647</v>
@@ -20042,7 +20042,7 @@
         <v>2485</v>
       </c>
       <c r="E186" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F186" t="s">
         <v>1838</v>
@@ -20136,7 +20136,7 @@
         <v>2487</v>
       </c>
       <c r="E188" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F188" t="s">
         <v>1840</v>
@@ -20248,7 +20248,7 @@
         <v>3596</v>
       </c>
       <c r="K190" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L190" t="s">
         <v>3646</v>
@@ -20324,7 +20324,7 @@
         <v>2490</v>
       </c>
       <c r="E192" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F192" t="s">
         <v>1840</v>
@@ -20371,7 +20371,7 @@
         <v>2491</v>
       </c>
       <c r="E193" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F193" t="s">
         <v>1843</v>
@@ -20436,7 +20436,7 @@
         <v>3595</v>
       </c>
       <c r="K194" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="L194" t="s">
         <v>3645</v>
@@ -20483,7 +20483,7 @@
         <v>3595</v>
       </c>
       <c r="K195" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="L195" t="s">
         <v>3644</v>
@@ -20512,7 +20512,7 @@
         <v>2494</v>
       </c>
       <c r="E196" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F196" t="s">
         <v>1846</v>
@@ -20559,7 +20559,7 @@
         <v>2495</v>
       </c>
       <c r="E197" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F197" t="s">
         <v>1811</v>
@@ -20935,7 +20935,7 @@
         <v>2503</v>
       </c>
       <c r="E205" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F205" t="s">
         <v>1720</v>
@@ -20982,7 +20982,7 @@
         <v>2504</v>
       </c>
       <c r="E206" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F206" t="s">
         <v>1852</v>
@@ -21000,7 +21000,7 @@
         <v>3596</v>
       </c>
       <c r="K206" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L206" t="s">
         <v>3646</v>
@@ -21029,7 +21029,7 @@
         <v>2505</v>
       </c>
       <c r="E207" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F207" t="s">
         <v>1851</v>
@@ -21123,7 +21123,7 @@
         <v>2507</v>
       </c>
       <c r="E209" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="F209" t="s">
         <v>1853</v>
@@ -21170,7 +21170,7 @@
         <v>2508</v>
       </c>
       <c r="E210" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F210" t="s">
         <v>1812</v>
@@ -21235,7 +21235,7 @@
         <v>3604</v>
       </c>
       <c r="K211" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L211" t="s">
         <v>3643</v>
@@ -21329,7 +21329,7 @@
         <v>3596</v>
       </c>
       <c r="K213" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L213" t="s">
         <v>3646</v>
@@ -21470,7 +21470,7 @@
         <v>3593</v>
       </c>
       <c r="K216" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L216" t="s">
         <v>3648</v>
@@ -21593,7 +21593,7 @@
         <v>2517</v>
       </c>
       <c r="E219" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F219" t="s">
         <v>1860</v>
@@ -21658,7 +21658,7 @@
         <v>3596</v>
       </c>
       <c r="K220" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L220" t="s">
         <v>3646</v>
@@ -21799,7 +21799,7 @@
         <v>3596</v>
       </c>
       <c r="K223" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L223" t="s">
         <v>3646</v>
@@ -21875,7 +21875,7 @@
         <v>2522</v>
       </c>
       <c r="E225" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F225" t="s">
         <v>1827</v>
@@ -21922,7 +21922,7 @@
         <v>2523</v>
       </c>
       <c r="E226" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="F226" t="s">
         <v>1864</v>
@@ -22034,7 +22034,7 @@
         <v>3593</v>
       </c>
       <c r="K228" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="L228" t="s">
         <v>3644</v>
@@ -22063,7 +22063,7 @@
         <v>2526</v>
       </c>
       <c r="E229" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F229" t="s">
         <v>1866</v>
@@ -22175,7 +22175,7 @@
         <v>3596</v>
       </c>
       <c r="K231" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L231" t="s">
         <v>3646</v>
@@ -22204,7 +22204,7 @@
         <v>2529</v>
       </c>
       <c r="E232" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F232" t="s">
         <v>1869</v>
@@ -22269,7 +22269,7 @@
         <v>3593</v>
       </c>
       <c r="K233" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L233" t="s">
         <v>3644</v>
@@ -22316,7 +22316,7 @@
         <v>3596</v>
       </c>
       <c r="K234" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L234" t="s">
         <v>3646</v>
@@ -22345,7 +22345,7 @@
         <v>2532</v>
       </c>
       <c r="E235" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F235" t="s">
         <v>1872</v>
@@ -22363,7 +22363,7 @@
         <v>3596</v>
       </c>
       <c r="K235" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L235" t="s">
         <v>3649</v>
@@ -22439,7 +22439,7 @@
         <v>2534</v>
       </c>
       <c r="E237" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F237" t="s">
         <v>1873</v>
@@ -22486,7 +22486,7 @@
         <v>2535</v>
       </c>
       <c r="E238" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F238" t="s">
         <v>1747</v>
@@ -22768,7 +22768,7 @@
         <v>2541</v>
       </c>
       <c r="E244" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="F244" t="s">
         <v>1757</v>
@@ -22786,7 +22786,7 @@
         <v>3593</v>
       </c>
       <c r="K244" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="L244" t="s">
         <v>3644</v>
@@ -22974,7 +22974,7 @@
         <v>3596</v>
       </c>
       <c r="K248" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="L248" t="s">
         <v>3647</v>
@@ -23003,7 +23003,7 @@
         <v>2546</v>
       </c>
       <c r="E249" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="F249" t="s">
         <v>1880</v>
@@ -23144,7 +23144,7 @@
         <v>2549</v>
       </c>
       <c r="E252" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F252" t="s">
         <v>1881</v>
@@ -23285,7 +23285,7 @@
         <v>2552</v>
       </c>
       <c r="E255" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="F255" t="s">
         <v>1696</v>
@@ -23303,7 +23303,7 @@
         <v>3593</v>
       </c>
       <c r="K255" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L255" t="s">
         <v>3648</v>
@@ -23332,7 +23332,7 @@
         <v>2553</v>
       </c>
       <c r="E256" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F256" t="s">
         <v>1883</v>
@@ -23538,7 +23538,7 @@
         <v>3596</v>
       </c>
       <c r="K260" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L260" t="s">
         <v>3646</v>
@@ -23679,7 +23679,7 @@
         <v>3593</v>
       </c>
       <c r="K263" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L263" t="s">
         <v>3643</v>
@@ -23708,7 +23708,7 @@
         <v>2561</v>
       </c>
       <c r="E264" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F264" t="s">
         <v>1888</v>
@@ -23802,7 +23802,7 @@
         <v>2563</v>
       </c>
       <c r="E266" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F266" t="s">
         <v>1795</v>
@@ -23820,7 +23820,7 @@
         <v>3602</v>
       </c>
       <c r="K266" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L266" t="s">
         <v>3647</v>
@@ -24008,7 +24008,7 @@
         <v>3596</v>
       </c>
       <c r="K270" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="L270" t="s">
         <v>3649</v>
@@ -24084,7 +24084,7 @@
         <v>2569</v>
       </c>
       <c r="E272" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F272" t="s">
         <v>1890</v>
@@ -24102,7 +24102,7 @@
         <v>3596</v>
       </c>
       <c r="K272" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L272" t="s">
         <v>3646</v>
@@ -24366,7 +24366,7 @@
         <v>2575</v>
       </c>
       <c r="E278" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F278" t="s">
         <v>1890</v>
@@ -24525,7 +24525,7 @@
         <v>3596</v>
       </c>
       <c r="K281" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L281" t="s">
         <v>3647</v>
@@ -24554,7 +24554,7 @@
         <v>2579</v>
       </c>
       <c r="E282" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F282" t="s">
         <v>1898</v>
@@ -24601,7 +24601,7 @@
         <v>2580</v>
       </c>
       <c r="E283" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F283" t="s">
         <v>1899</v>
@@ -24742,7 +24742,7 @@
         <v>2583</v>
       </c>
       <c r="E286" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="F286" t="s">
         <v>1901</v>
@@ -24789,7 +24789,7 @@
         <v>2584</v>
       </c>
       <c r="E287" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F287" t="s">
         <v>1902</v>
@@ -24901,7 +24901,7 @@
         <v>3611</v>
       </c>
       <c r="K289" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="L289" t="s">
         <v>3645</v>
@@ -25024,7 +25024,7 @@
         <v>2589</v>
       </c>
       <c r="E292" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F292" t="s">
         <v>1841</v>
@@ -25118,7 +25118,7 @@
         <v>2591</v>
       </c>
       <c r="E294" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F294" t="s">
         <v>1905</v>
@@ -25212,7 +25212,7 @@
         <v>2593</v>
       </c>
       <c r="E296" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F296" t="s">
         <v>1719</v>
@@ -25841,7 +25841,7 @@
         <v>3611</v>
       </c>
       <c r="K309" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L309" t="s">
         <v>3645</v>
@@ -26029,7 +26029,7 @@
         <v>3596</v>
       </c>
       <c r="K313" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="L313" t="s">
         <v>3646</v>
@@ -26199,7 +26199,7 @@
         <v>2614</v>
       </c>
       <c r="E317" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F317" t="s">
         <v>1773</v>
@@ -26246,7 +26246,7 @@
         <v>2615</v>
       </c>
       <c r="E318" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F318" t="s">
         <v>1922</v>
@@ -26340,7 +26340,7 @@
         <v>2617</v>
       </c>
       <c r="E320" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F320" t="s">
         <v>1924</v>
@@ -26387,7 +26387,7 @@
         <v>2618</v>
       </c>
       <c r="E321" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="F321" t="s">
         <v>1925</v>
@@ -26434,7 +26434,7 @@
         <v>2619</v>
       </c>
       <c r="E322" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F322" t="s">
         <v>1926</v>
@@ -26452,7 +26452,7 @@
         <v>3602</v>
       </c>
       <c r="K322" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L322" t="s">
         <v>3644</v>
@@ -26546,7 +26546,7 @@
         <v>3596</v>
       </c>
       <c r="K324" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L324" t="s">
         <v>3646</v>
@@ -26763,7 +26763,7 @@
         <v>2626</v>
       </c>
       <c r="E329" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F329" t="s">
         <v>1931</v>
@@ -26781,7 +26781,7 @@
         <v>3596</v>
       </c>
       <c r="K329" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L329" t="s">
         <v>3645</v>
@@ -26810,7 +26810,7 @@
         <v>2627</v>
       </c>
       <c r="E330" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F330" t="s">
         <v>1932</v>
@@ -26969,7 +26969,7 @@
         <v>3596</v>
       </c>
       <c r="K333" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L333" t="s">
         <v>3646</v>
@@ -26998,7 +26998,7 @@
         <v>2631</v>
       </c>
       <c r="E334" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F334" t="s">
         <v>1935</v>
@@ -27157,7 +27157,7 @@
         <v>3593</v>
       </c>
       <c r="K337" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="L337" t="s">
         <v>3644</v>
@@ -27204,7 +27204,7 @@
         <v>3596</v>
       </c>
       <c r="K338" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L338" t="s">
         <v>3646</v>
@@ -27439,7 +27439,7 @@
         <v>3602</v>
       </c>
       <c r="K343" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L343" t="s">
         <v>3644</v>
@@ -27515,7 +27515,7 @@
         <v>2642</v>
       </c>
       <c r="E345" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F345" t="s">
         <v>1902</v>
@@ -27609,7 +27609,7 @@
         <v>2644</v>
       </c>
       <c r="E347" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="F347" t="s">
         <v>1945</v>
@@ -27656,7 +27656,7 @@
         <v>2645</v>
       </c>
       <c r="E348" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F348" t="s">
         <v>1946</v>
@@ -27797,7 +27797,7 @@
         <v>2647</v>
       </c>
       <c r="E351" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="F351" t="s">
         <v>1949</v>
@@ -27938,7 +27938,7 @@
         <v>2650</v>
       </c>
       <c r="E354" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F354" t="s">
         <v>1823</v>
@@ -27985,7 +27985,7 @@
         <v>2651</v>
       </c>
       <c r="E355" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F355" t="s">
         <v>1951</v>
@@ -28267,7 +28267,7 @@
         <v>2657</v>
       </c>
       <c r="E361" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F361" t="s">
         <v>1955</v>
@@ -28520,7 +28520,7 @@
         <v>3593</v>
       </c>
       <c r="K366" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="L366" t="s">
         <v>3648</v>
@@ -28549,7 +28549,7 @@
         <v>2663</v>
       </c>
       <c r="E367" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F367" t="s">
         <v>1762</v>
@@ -28802,7 +28802,7 @@
         <v>3609</v>
       </c>
       <c r="K372" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L372" t="s">
         <v>3644</v>
@@ -28943,7 +28943,7 @@
         <v>3596</v>
       </c>
       <c r="K375" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L375" t="s">
         <v>3645</v>
@@ -29019,7 +29019,7 @@
         <v>2672</v>
       </c>
       <c r="E377" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F377" t="s">
         <v>1964</v>
@@ -29084,7 +29084,7 @@
         <v>3593</v>
       </c>
       <c r="K378" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L378" t="s">
         <v>3644</v>
@@ -29131,7 +29131,7 @@
         <v>3596</v>
       </c>
       <c r="K379" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L379" t="s">
         <v>3646</v>
@@ -29348,7 +29348,7 @@
         <v>2679</v>
       </c>
       <c r="E384" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F384" t="s">
         <v>1967</v>
@@ -29366,7 +29366,7 @@
         <v>3596</v>
       </c>
       <c r="K384" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L384" t="s">
         <v>3646</v>
@@ -29442,7 +29442,7 @@
         <v>2681</v>
       </c>
       <c r="E386" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F386" t="s">
         <v>1862</v>
@@ -29460,7 +29460,7 @@
         <v>3593</v>
       </c>
       <c r="K386" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L386" t="s">
         <v>3648</v>
@@ -29645,7 +29645,7 @@
         <v>3595</v>
       </c>
       <c r="K390" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L390" t="s">
         <v>3643</v>
@@ -29692,7 +29692,7 @@
         <v>3595</v>
       </c>
       <c r="K391" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L391" t="s">
         <v>3643</v>
@@ -29815,7 +29815,7 @@
         <v>2689</v>
       </c>
       <c r="E394" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F394" t="s">
         <v>1829</v>
@@ -29862,7 +29862,7 @@
         <v>2690</v>
       </c>
       <c r="E395" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="F395" t="s">
         <v>1973</v>
@@ -29909,7 +29909,7 @@
         <v>2691</v>
       </c>
       <c r="E396" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F396" t="s">
         <v>1974</v>
@@ -29956,7 +29956,7 @@
         <v>2692</v>
       </c>
       <c r="E397" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="F397" t="s">
         <v>1975</v>
@@ -29974,7 +29974,7 @@
         <v>3595</v>
       </c>
       <c r="K397" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="L397" t="s">
         <v>3643</v>
@@ -30003,7 +30003,7 @@
         <v>2693</v>
       </c>
       <c r="E398" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="F398" t="s">
         <v>1976</v>
@@ -30162,7 +30162,7 @@
         <v>3602</v>
       </c>
       <c r="K401" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="L401" t="s">
         <v>3644</v>
@@ -30350,7 +30350,7 @@
         <v>3596</v>
       </c>
       <c r="K405" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L405" t="s">
         <v>3645</v>
@@ -30567,7 +30567,7 @@
         <v>2704</v>
       </c>
       <c r="E410" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F410" t="s">
         <v>1982</v>
@@ -30914,7 +30914,7 @@
         <v>3596</v>
       </c>
       <c r="K417" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L417" t="s">
         <v>3643</v>
@@ -30943,7 +30943,7 @@
         <v>2712</v>
       </c>
       <c r="E418" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F418" t="s">
         <v>1988</v>
@@ -30961,7 +30961,7 @@
         <v>3596</v>
       </c>
       <c r="K418" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L418" t="s">
         <v>3646</v>
@@ -31037,7 +31037,7 @@
         <v>2714</v>
       </c>
       <c r="E420" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="F420" t="s">
         <v>1989</v>
@@ -31131,7 +31131,7 @@
         <v>2716</v>
       </c>
       <c r="E422" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="F422" t="s">
         <v>1990</v>
@@ -31366,7 +31366,7 @@
         <v>2721</v>
       </c>
       <c r="E427" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="F427" t="s">
         <v>1994</v>
@@ -31384,7 +31384,7 @@
         <v>3602</v>
       </c>
       <c r="K427" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L427" t="s">
         <v>3648</v>
@@ -31431,7 +31431,7 @@
         <v>3593</v>
       </c>
       <c r="K428" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L428" t="s">
         <v>3648</v>
@@ -31460,7 +31460,7 @@
         <v>2723</v>
       </c>
       <c r="E429" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F429" t="s">
         <v>1995</v>
@@ -31554,7 +31554,7 @@
         <v>2725</v>
       </c>
       <c r="E431" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F431" t="s">
         <v>1996</v>
@@ -31742,7 +31742,7 @@
         <v>2729</v>
       </c>
       <c r="E435" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F435" t="s">
         <v>1879</v>
@@ -31901,7 +31901,7 @@
         <v>3596</v>
       </c>
       <c r="K438" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="L438" t="s">
         <v>3645</v>
@@ -32024,7 +32024,7 @@
         <v>2735</v>
       </c>
       <c r="E441" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="F441" t="s">
         <v>2002</v>
@@ -32042,7 +32042,7 @@
         <v>3593</v>
       </c>
       <c r="K441" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="L441" t="s">
         <v>3648</v>
@@ -32183,7 +32183,7 @@
         <v>3595</v>
       </c>
       <c r="K444" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L444" t="s">
         <v>3643</v>
@@ -32477,7 +32477,7 @@
         <v>3654</v>
       </c>
       <c r="O450">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="451" spans="1:15">
@@ -32794,7 +32794,7 @@
         <v>3612</v>
       </c>
       <c r="K457" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L457" t="s">
         <v>3648</v>
@@ -32841,7 +32841,7 @@
         <v>3612</v>
       </c>
       <c r="K458" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L458" t="s">
         <v>3643</v>
@@ -32870,7 +32870,7 @@
         <v>2752</v>
       </c>
       <c r="E459" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F459" t="s">
         <v>2014</v>
@@ -32964,7 +32964,7 @@
         <v>2754</v>
       </c>
       <c r="E461" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F461" t="s">
         <v>2015</v>
@@ -33011,7 +33011,7 @@
         <v>2755</v>
       </c>
       <c r="E462" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F462" t="s">
         <v>2016</v>
@@ -33029,7 +33029,7 @@
         <v>3596</v>
       </c>
       <c r="K462" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L462" t="s">
         <v>3645</v>
@@ -33170,7 +33170,7 @@
         <v>3596</v>
       </c>
       <c r="K465" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L465" t="s">
         <v>3647</v>
@@ -33293,7 +33293,7 @@
         <v>2761</v>
       </c>
       <c r="E468" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F468" t="s">
         <v>2020</v>
@@ -33358,7 +33358,7 @@
         <v>3596</v>
       </c>
       <c r="K469" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="L469" t="s">
         <v>3646</v>
@@ -33452,7 +33452,7 @@
         <v>3602</v>
       </c>
       <c r="K471" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="L471" t="s">
         <v>3648</v>
@@ -33687,7 +33687,7 @@
         <v>3622</v>
       </c>
       <c r="K476" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L476" t="s">
         <v>3643</v>
@@ -33716,7 +33716,7 @@
         <v>2770</v>
       </c>
       <c r="E477" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F477" t="s">
         <v>2026</v>
@@ -33734,7 +33734,7 @@
         <v>3602</v>
       </c>
       <c r="K477" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L477" t="s">
         <v>3643</v>
@@ -33763,7 +33763,7 @@
         <v>2771</v>
       </c>
       <c r="E478" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F478" t="s">
         <v>2027</v>
@@ -33828,7 +33828,7 @@
         <v>3602</v>
       </c>
       <c r="K479" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="L479" t="s">
         <v>3647</v>
@@ -33875,7 +33875,7 @@
         <v>3596</v>
       </c>
       <c r="K480" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L480" t="s">
         <v>3646</v>
@@ -34045,7 +34045,7 @@
         <v>2777</v>
       </c>
       <c r="E484" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F484" t="s">
         <v>1692</v>
@@ -34139,7 +34139,7 @@
         <v>2779</v>
       </c>
       <c r="E486" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F486" t="s">
         <v>2030</v>
@@ -34157,7 +34157,7 @@
         <v>3602</v>
       </c>
       <c r="K486" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="L486" t="s">
         <v>3645</v>
@@ -34345,7 +34345,7 @@
         <v>3596</v>
       </c>
       <c r="K490" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L490" t="s">
         <v>3646</v>
@@ -34374,7 +34374,7 @@
         <v>2784</v>
       </c>
       <c r="E491" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F491" t="s">
         <v>1768</v>
@@ -34392,7 +34392,7 @@
         <v>3596</v>
       </c>
       <c r="K491" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L491" t="s">
         <v>3646</v>
@@ -34486,7 +34486,7 @@
         <v>3596</v>
       </c>
       <c r="K493" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L493" t="s">
         <v>3646</v>
@@ -34562,7 +34562,7 @@
         <v>2787</v>
       </c>
       <c r="E495" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="F495" t="s">
         <v>1835</v>
@@ -34609,7 +34609,7 @@
         <v>2788</v>
       </c>
       <c r="E496" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F496" t="s">
         <v>2034</v>
@@ -34627,7 +34627,7 @@
         <v>3593</v>
       </c>
       <c r="K496" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L496" t="s">
         <v>3648</v>
@@ -34750,7 +34750,7 @@
         <v>2790</v>
       </c>
       <c r="E499" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="F499" t="s">
         <v>1900</v>
@@ -34862,7 +34862,7 @@
         <v>3623</v>
       </c>
       <c r="K501" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L501" t="s">
         <v>3645</v>
@@ -34909,7 +34909,7 @@
         <v>3602</v>
       </c>
       <c r="K502" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L502" t="s">
         <v>3644</v>
@@ -35079,7 +35079,7 @@
         <v>2797</v>
       </c>
       <c r="E506" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F506" t="s">
         <v>2037</v>
@@ -35144,7 +35144,7 @@
         <v>3603</v>
       </c>
       <c r="K507" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L507" t="s">
         <v>3644</v>
@@ -35173,7 +35173,7 @@
         <v>2381</v>
       </c>
       <c r="E508" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F508" t="s">
         <v>2038</v>
@@ -35238,7 +35238,7 @@
         <v>3596</v>
       </c>
       <c r="K509" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L509" t="s">
         <v>3646</v>
@@ -35267,7 +35267,7 @@
         <v>2800</v>
       </c>
       <c r="E510" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F510" t="s">
         <v>1738</v>
@@ -35361,7 +35361,7 @@
         <v>2802</v>
       </c>
       <c r="E512" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F512" t="s">
         <v>2040</v>
@@ -35426,7 +35426,7 @@
         <v>3596</v>
       </c>
       <c r="K513" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L513" t="s">
         <v>3645</v>
@@ -35549,7 +35549,7 @@
         <v>2806</v>
       </c>
       <c r="E516" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F516" t="s">
         <v>2028</v>
@@ -35614,7 +35614,7 @@
         <v>3596</v>
       </c>
       <c r="K517" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="L517" t="s">
         <v>3647</v>
@@ -35643,7 +35643,7 @@
         <v>2808</v>
       </c>
       <c r="E518" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F518" t="s">
         <v>2044</v>
@@ -35831,7 +35831,7 @@
         <v>2812</v>
       </c>
       <c r="E522" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F522" t="s">
         <v>2048</v>
@@ -36019,7 +36019,7 @@
         <v>2816</v>
       </c>
       <c r="E526" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F526" t="s">
         <v>1812</v>
@@ -36037,7 +36037,7 @@
         <v>3596</v>
       </c>
       <c r="K526" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L526" t="s">
         <v>3647</v>
@@ -36131,7 +36131,7 @@
         <v>3596</v>
       </c>
       <c r="K528" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L528" t="s">
         <v>3646</v>
@@ -36160,7 +36160,7 @@
         <v>2818</v>
       </c>
       <c r="E529" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F529" t="s">
         <v>2053</v>
@@ -36254,7 +36254,7 @@
         <v>2820</v>
       </c>
       <c r="E531" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F531" t="s">
         <v>1725</v>
@@ -36272,7 +36272,7 @@
         <v>3596</v>
       </c>
       <c r="K531" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="L531" t="s">
         <v>3646</v>
@@ -36319,7 +36319,7 @@
         <v>3612</v>
       </c>
       <c r="K532" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L532" t="s">
         <v>3644</v>
@@ -36366,7 +36366,7 @@
         <v>3596</v>
       </c>
       <c r="K533" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L533" t="s">
         <v>3647</v>
@@ -36395,7 +36395,7 @@
         <v>2823</v>
       </c>
       <c r="E534" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F534" t="s">
         <v>2055</v>
@@ -36583,7 +36583,7 @@
         <v>2827</v>
       </c>
       <c r="E538" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F538" t="s">
         <v>1914</v>
@@ -36601,7 +36601,7 @@
         <v>3596</v>
       </c>
       <c r="K538" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L538" t="s">
         <v>3649</v>
@@ -36630,7 +36630,7 @@
         <v>2381</v>
       </c>
       <c r="E539" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F539" t="s">
         <v>2056</v>
@@ -36695,7 +36695,7 @@
         <v>3596</v>
       </c>
       <c r="K540" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L540" t="s">
         <v>3646</v>
@@ -36724,7 +36724,7 @@
         <v>2829</v>
       </c>
       <c r="E541" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F541" t="s">
         <v>1914</v>
@@ -36818,7 +36818,7 @@
         <v>2831</v>
       </c>
       <c r="E543" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F543" t="s">
         <v>1791</v>
@@ -36959,7 +36959,7 @@
         <v>2834</v>
       </c>
       <c r="E546" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F546" t="s">
         <v>2056</v>
@@ -37212,7 +37212,7 @@
         <v>3596</v>
       </c>
       <c r="K551" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L551" t="s">
         <v>3646</v>
@@ -37241,7 +37241,7 @@
         <v>2840</v>
       </c>
       <c r="E552" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F552" t="s">
         <v>1717</v>
@@ -37335,7 +37335,7 @@
         <v>2842</v>
       </c>
       <c r="E554" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F554" t="s">
         <v>2062</v>
@@ -37429,7 +37429,7 @@
         <v>2844</v>
       </c>
       <c r="E556" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F556" t="s">
         <v>2063</v>
@@ -37617,7 +37617,7 @@
         <v>2848</v>
       </c>
       <c r="E560" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F560" t="s">
         <v>2065</v>
@@ -37776,7 +37776,7 @@
         <v>3596</v>
       </c>
       <c r="K563" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="L563" t="s">
         <v>3646</v>
@@ -37805,7 +37805,7 @@
         <v>2852</v>
       </c>
       <c r="E564" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F564" t="s">
         <v>1872</v>
@@ -37823,7 +37823,7 @@
         <v>3596</v>
       </c>
       <c r="K564" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L564" t="s">
         <v>3647</v>
@@ -37852,7 +37852,7 @@
         <v>2853</v>
       </c>
       <c r="E565" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F565" t="s">
         <v>2068</v>
@@ -37899,7 +37899,7 @@
         <v>2854</v>
       </c>
       <c r="E566" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F566" t="s">
         <v>1753</v>
@@ -37964,7 +37964,7 @@
         <v>3596</v>
       </c>
       <c r="K567" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="L567" t="s">
         <v>3647</v>
@@ -37993,7 +37993,7 @@
         <v>2856</v>
       </c>
       <c r="E568" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F568" t="s">
         <v>1914</v>
@@ -38134,7 +38134,7 @@
         <v>2859</v>
       </c>
       <c r="E571" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F571" t="s">
         <v>2067</v>
@@ -38152,7 +38152,7 @@
         <v>3596</v>
       </c>
       <c r="K571" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L571" t="s">
         <v>3646</v>
@@ -38275,7 +38275,7 @@
         <v>2862</v>
       </c>
       <c r="E574" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F574" t="s">
         <v>2070</v>
@@ -38554,7 +38554,7 @@
         <v>2381</v>
       </c>
       <c r="E580" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="F580" t="s">
         <v>2076</v>
@@ -38619,7 +38619,7 @@
         <v>3596</v>
       </c>
       <c r="K581" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="L581" t="s">
         <v>3646</v>
@@ -38648,7 +38648,7 @@
         <v>2869</v>
       </c>
       <c r="E582" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F582" t="s">
         <v>2077</v>
@@ -38883,7 +38883,7 @@
         <v>2874</v>
       </c>
       <c r="E587" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F587" t="s">
         <v>2080</v>
@@ -39479,7 +39479,7 @@
         <v>2887</v>
       </c>
       <c r="E600" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F600" t="s">
         <v>2074</v>
@@ -39931,7 +39931,7 @@
         <v>2897</v>
       </c>
       <c r="E610" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F610" t="s">
         <v>2097</v>
@@ -39996,7 +39996,7 @@
         <v>3602</v>
       </c>
       <c r="K611" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="L611" t="s">
         <v>3643</v>
@@ -40025,7 +40025,7 @@
         <v>2899</v>
       </c>
       <c r="E612" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="F612" t="s">
         <v>2035</v>
@@ -40072,7 +40072,7 @@
         <v>2900</v>
       </c>
       <c r="E613" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F613" t="s">
         <v>2098</v>
@@ -40257,7 +40257,7 @@
         <v>2904</v>
       </c>
       <c r="E617" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="F617" t="s">
         <v>2101</v>
@@ -40322,7 +40322,7 @@
         <v>3598</v>
       </c>
       <c r="K618" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="L618" t="s">
         <v>3645</v>
@@ -40369,7 +40369,7 @@
         <v>3596</v>
       </c>
       <c r="K619" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L619" t="s">
         <v>3643</v>
@@ -40398,7 +40398,7 @@
         <v>2907</v>
       </c>
       <c r="E620" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F620" t="s">
         <v>2103</v>
@@ -40586,7 +40586,7 @@
         <v>2911</v>
       </c>
       <c r="E624" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F624" t="s">
         <v>2067</v>
@@ -40680,7 +40680,7 @@
         <v>2381</v>
       </c>
       <c r="E626" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F626" t="s">
         <v>2107</v>
@@ -40927,7 +40927,7 @@
         <v>3596</v>
       </c>
       <c r="K631" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="L631" t="s">
         <v>3643</v>
@@ -40956,7 +40956,7 @@
         <v>2918</v>
       </c>
       <c r="E632" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F632" t="s">
         <v>2111</v>
@@ -40974,7 +40974,7 @@
         <v>3596</v>
       </c>
       <c r="K632" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L632" t="s">
         <v>3646</v>
@@ -41050,7 +41050,7 @@
         <v>2920</v>
       </c>
       <c r="E634" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F634" t="s">
         <v>2111</v>
@@ -41068,7 +41068,7 @@
         <v>3596</v>
       </c>
       <c r="K634" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L634" t="s">
         <v>3646</v>
@@ -41253,7 +41253,7 @@
         <v>3596</v>
       </c>
       <c r="K638" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L638" t="s">
         <v>3646</v>
@@ -41282,7 +41282,7 @@
         <v>2925</v>
       </c>
       <c r="E639" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F639" t="s">
         <v>2116</v>
@@ -41423,7 +41423,7 @@
         <v>2928</v>
       </c>
       <c r="E642" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F642" t="s">
         <v>2118</v>
@@ -41488,7 +41488,7 @@
         <v>3608</v>
       </c>
       <c r="K643" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="L643" t="s">
         <v>3647</v>
@@ -41517,7 +41517,7 @@
         <v>2930</v>
       </c>
       <c r="E644" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F644" t="s">
         <v>2120</v>
@@ -41582,7 +41582,7 @@
         <v>3596</v>
       </c>
       <c r="K645" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="L645" t="s">
         <v>3646</v>
@@ -41676,7 +41676,7 @@
         <v>3608</v>
       </c>
       <c r="K647" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L647" t="s">
         <v>3644</v>
@@ -41955,7 +41955,7 @@
         <v>3598</v>
       </c>
       <c r="K653" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L653" t="s">
         <v>3643</v>
@@ -41984,7 +41984,7 @@
         <v>2939</v>
       </c>
       <c r="E654" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F654" t="s">
         <v>2125</v>
@@ -42031,7 +42031,7 @@
         <v>2940</v>
       </c>
       <c r="E655" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F655" t="s">
         <v>2126</v>
@@ -42049,7 +42049,7 @@
         <v>3596</v>
       </c>
       <c r="K655" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L655" t="s">
         <v>3643</v>
@@ -42078,7 +42078,7 @@
         <v>2941</v>
       </c>
       <c r="E656" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F656" t="s">
         <v>1976</v>
@@ -42284,7 +42284,7 @@
         <v>3598</v>
       </c>
       <c r="K660" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="L660" t="s">
         <v>3643</v>
@@ -42313,7 +42313,7 @@
         <v>2946</v>
       </c>
       <c r="E661" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="F661" t="s">
         <v>2129</v>
@@ -42378,7 +42378,7 @@
         <v>3596</v>
       </c>
       <c r="K662" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L662" t="s">
         <v>3645</v>
@@ -42689,7 +42689,7 @@
         <v>2954</v>
       </c>
       <c r="E669" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F669" t="s">
         <v>1974</v>
@@ -42895,7 +42895,7 @@
         <v>3596</v>
       </c>
       <c r="K673" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L673" t="s">
         <v>3646</v>
@@ -43018,7 +43018,7 @@
         <v>2961</v>
       </c>
       <c r="E676" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F676" t="s">
         <v>2139</v>
@@ -43112,7 +43112,7 @@
         <v>2963</v>
       </c>
       <c r="E678" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F678" t="s">
         <v>2140</v>
@@ -43271,7 +43271,7 @@
         <v>3596</v>
       </c>
       <c r="K681" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L681" t="s">
         <v>3646</v>
@@ -43365,7 +43365,7 @@
         <v>3596</v>
       </c>
       <c r="K683" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="L683" t="s">
         <v>3647</v>
@@ -43412,7 +43412,7 @@
         <v>3596</v>
       </c>
       <c r="K684" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="L684" t="s">
         <v>3643</v>
@@ -43441,7 +43441,7 @@
         <v>2970</v>
       </c>
       <c r="E685" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="F685" t="s">
         <v>1731</v>
@@ -43506,7 +43506,7 @@
         <v>3593</v>
       </c>
       <c r="K686" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L686" t="s">
         <v>3644</v>
@@ -43535,7 +43535,7 @@
         <v>2972</v>
       </c>
       <c r="E687" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F687" t="s">
         <v>2142</v>
@@ -43629,7 +43629,7 @@
         <v>2974</v>
       </c>
       <c r="E689" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="F689" t="s">
         <v>2143</v>
@@ -43647,7 +43647,7 @@
         <v>3596</v>
       </c>
       <c r="K689" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="L689" t="s">
         <v>3646</v>
@@ -43691,7 +43691,7 @@
         <v>3596</v>
       </c>
       <c r="K690" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="L690" t="s">
         <v>3649</v>
@@ -43720,7 +43720,7 @@
         <v>2976</v>
       </c>
       <c r="E691" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="F691" t="s">
         <v>2138</v>
@@ -43738,7 +43738,7 @@
         <v>3598</v>
       </c>
       <c r="K691" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L691" t="s">
         <v>3647</v>
@@ -43767,7 +43767,7 @@
         <v>2977</v>
       </c>
       <c r="E692" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F692" t="s">
         <v>2145</v>
@@ -44161,7 +44161,7 @@
         <v>3596</v>
       </c>
       <c r="K700" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L700" t="s">
         <v>3643</v>
@@ -44284,7 +44284,7 @@
         <v>2988</v>
       </c>
       <c r="E703" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F703" t="s">
         <v>2140</v>
@@ -44331,7 +44331,7 @@
         <v>2989</v>
       </c>
       <c r="E704" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F704" t="s">
         <v>1728</v>
@@ -44378,7 +44378,7 @@
         <v>2990</v>
       </c>
       <c r="E705" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="F705" t="s">
         <v>2147</v>
@@ -44396,7 +44396,7 @@
         <v>3593</v>
       </c>
       <c r="K705" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L705" t="s">
         <v>3643</v>
@@ -44425,7 +44425,7 @@
         <v>2991</v>
       </c>
       <c r="E706" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F706" t="s">
         <v>2148</v>
@@ -44472,7 +44472,7 @@
         <v>2992</v>
       </c>
       <c r="E707" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="F707" t="s">
         <v>1985</v>
@@ -44490,7 +44490,7 @@
         <v>3596</v>
       </c>
       <c r="K707" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="L707" t="s">
         <v>3648</v>
@@ -44942,7 +44942,7 @@
         <v>3002</v>
       </c>
       <c r="E717" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F717" t="s">
         <v>2152</v>
@@ -45195,7 +45195,7 @@
         <v>3596</v>
       </c>
       <c r="K722" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L722" t="s">
         <v>3646</v>
@@ -45224,7 +45224,7 @@
         <v>3008</v>
       </c>
       <c r="E723" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F723" t="s">
         <v>1725</v>
@@ -45318,7 +45318,7 @@
         <v>3010</v>
       </c>
       <c r="E725" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F725" t="s">
         <v>2155</v>
@@ -45412,7 +45412,7 @@
         <v>3012</v>
       </c>
       <c r="E727" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="F727" t="s">
         <v>1937</v>
@@ -45553,7 +45553,7 @@
         <v>3015</v>
       </c>
       <c r="E730" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F730" t="s">
         <v>1999</v>
@@ -45600,7 +45600,7 @@
         <v>3016</v>
       </c>
       <c r="E731" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F731" t="s">
         <v>2157</v>
@@ -45647,7 +45647,7 @@
         <v>3017</v>
       </c>
       <c r="E732" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F732" t="s">
         <v>1717</v>
@@ -45788,7 +45788,7 @@
         <v>3020</v>
       </c>
       <c r="E735" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="F735" t="s">
         <v>1861</v>
@@ -45853,7 +45853,7 @@
         <v>3598</v>
       </c>
       <c r="K736" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L736" t="s">
         <v>3645</v>
@@ -45900,7 +45900,7 @@
         <v>3598</v>
       </c>
       <c r="K737" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L737" t="s">
         <v>3645</v>
@@ -45994,7 +45994,7 @@
         <v>3598</v>
       </c>
       <c r="K739" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L739" t="s">
         <v>3645</v>
@@ -46229,7 +46229,7 @@
         <v>3598</v>
       </c>
       <c r="K744" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L744" t="s">
         <v>3645</v>
@@ -46276,7 +46276,7 @@
         <v>3598</v>
       </c>
       <c r="K745" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L745" t="s">
         <v>3645</v>
@@ -46305,7 +46305,7 @@
         <v>3031</v>
       </c>
       <c r="E746" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F746" t="s">
         <v>1997</v>
@@ -46493,7 +46493,7 @@
         <v>3035</v>
       </c>
       <c r="E750" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F750" t="s">
         <v>1757</v>
@@ -46634,7 +46634,7 @@
         <v>3038</v>
       </c>
       <c r="E753" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F753" t="s">
         <v>2161</v>
@@ -46746,7 +46746,7 @@
         <v>3598</v>
       </c>
       <c r="K755" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L755" t="s">
         <v>3645</v>
@@ -46793,7 +46793,7 @@
         <v>3598</v>
       </c>
       <c r="K756" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L756" t="s">
         <v>3643</v>
@@ -46840,7 +46840,7 @@
         <v>3598</v>
       </c>
       <c r="K757" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="L757" t="s">
         <v>3645</v>
@@ -47151,7 +47151,7 @@
         <v>3047</v>
       </c>
       <c r="E764" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="F764" t="s">
         <v>2167</v>
@@ -47216,7 +47216,7 @@
         <v>3596</v>
       </c>
       <c r="K765" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L765" t="s">
         <v>3646</v>
@@ -47339,7 +47339,7 @@
         <v>3051</v>
       </c>
       <c r="E768" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F768" t="s">
         <v>2170</v>
@@ -47386,7 +47386,7 @@
         <v>3052</v>
       </c>
       <c r="E769" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="F769" t="s">
         <v>1793</v>
@@ -47433,7 +47433,7 @@
         <v>3053</v>
       </c>
       <c r="E770" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F770" t="s">
         <v>2171</v>
@@ -47480,7 +47480,7 @@
         <v>3054</v>
       </c>
       <c r="E771" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F771" t="s">
         <v>1747</v>
@@ -47527,7 +47527,7 @@
         <v>3055</v>
       </c>
       <c r="E772" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F772" t="s">
         <v>1872</v>
@@ -47574,7 +47574,7 @@
         <v>3056</v>
       </c>
       <c r="E773" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F773" t="s">
         <v>2172</v>
@@ -47856,7 +47856,7 @@
         <v>3062</v>
       </c>
       <c r="E779" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F779" t="s">
         <v>2175</v>
@@ -48044,7 +48044,7 @@
         <v>3066</v>
       </c>
       <c r="E783" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F783" t="s">
         <v>2025</v>
@@ -48091,7 +48091,7 @@
         <v>3067</v>
       </c>
       <c r="E784" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F784" t="s">
         <v>2177</v>
@@ -48203,7 +48203,7 @@
         <v>3611</v>
       </c>
       <c r="K786" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="L786" t="s">
         <v>3645</v>
@@ -48344,7 +48344,7 @@
         <v>3596</v>
       </c>
       <c r="K789" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="L789" t="s">
         <v>3643</v>
@@ -48373,7 +48373,7 @@
         <v>3073</v>
       </c>
       <c r="E790" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="F790" t="s">
         <v>2180</v>
@@ -48485,7 +48485,7 @@
         <v>3596</v>
       </c>
       <c r="K792" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="L792" t="s">
         <v>3649</v>
@@ -48561,7 +48561,7 @@
         <v>3077</v>
       </c>
       <c r="E794" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="F794" t="s">
         <v>2181</v>
@@ -48608,7 +48608,7 @@
         <v>3078</v>
       </c>
       <c r="E795" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F795" t="s">
         <v>1868</v>
@@ -48626,7 +48626,7 @@
         <v>3596</v>
       </c>
       <c r="K795" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="L795" t="s">
         <v>3647</v>
@@ -48673,7 +48673,7 @@
         <v>3595</v>
       </c>
       <c r="K796" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L796" t="s">
         <v>3643</v>
@@ -48702,7 +48702,7 @@
         <v>3080</v>
       </c>
       <c r="E797" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F797" t="s">
         <v>2182</v>
@@ -48749,7 +48749,7 @@
         <v>3081</v>
       </c>
       <c r="E798" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F798" t="s">
         <v>2181</v>
@@ -48796,7 +48796,7 @@
         <v>3082</v>
       </c>
       <c r="E799" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F799" t="s">
         <v>1960</v>
@@ -48843,7 +48843,7 @@
         <v>3083</v>
       </c>
       <c r="E800" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="F800" t="s">
         <v>2136</v>
@@ -49031,7 +49031,7 @@
         <v>3087</v>
       </c>
       <c r="E804" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F804" t="s">
         <v>2184</v>
@@ -49096,7 +49096,7 @@
         <v>3593</v>
       </c>
       <c r="K805" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L805" t="s">
         <v>3647</v>
@@ -49143,7 +49143,7 @@
         <v>3596</v>
       </c>
       <c r="K806" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L806" t="s">
         <v>3648</v>
@@ -49266,7 +49266,7 @@
         <v>3092</v>
       </c>
       <c r="E809" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F809" t="s">
         <v>1747</v>
@@ -49313,7 +49313,7 @@
         <v>3093</v>
       </c>
       <c r="E810" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F810" t="s">
         <v>1829</v>
@@ -49378,7 +49378,7 @@
         <v>3596</v>
       </c>
       <c r="K811" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L811" t="s">
         <v>3645</v>
@@ -49454,7 +49454,7 @@
         <v>3096</v>
       </c>
       <c r="E813" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="F813" t="s">
         <v>2189</v>
@@ -49519,7 +49519,7 @@
         <v>3602</v>
       </c>
       <c r="K814" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L814" t="s">
         <v>3643</v>
@@ -49548,7 +49548,7 @@
         <v>3098</v>
       </c>
       <c r="E815" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="F815" t="s">
         <v>1747</v>
@@ -49660,7 +49660,7 @@
         <v>3596</v>
       </c>
       <c r="K817" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="L817" t="s">
         <v>3646</v>
@@ -49754,7 +49754,7 @@
         <v>3596</v>
       </c>
       <c r="K819" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="L819" t="s">
         <v>3646</v>
@@ -49783,7 +49783,7 @@
         <v>3103</v>
       </c>
       <c r="E820" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F820" t="s">
         <v>2012</v>
@@ -49801,7 +49801,7 @@
         <v>3602</v>
       </c>
       <c r="K820" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L820" t="s">
         <v>3643</v>
@@ -49895,7 +49895,7 @@
         <v>3611</v>
       </c>
       <c r="K822" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L822" t="s">
         <v>3645</v>
@@ -49924,7 +49924,7 @@
         <v>3106</v>
       </c>
       <c r="E823" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F823" t="s">
         <v>1919</v>
@@ -49989,7 +49989,7 @@
         <v>3602</v>
       </c>
       <c r="K824" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="L824" t="s">
         <v>3647</v>
@@ -50036,7 +50036,7 @@
         <v>3596</v>
       </c>
       <c r="K825" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="L825" t="s">
         <v>3649</v>
@@ -50083,7 +50083,7 @@
         <v>3597</v>
       </c>
       <c r="K826" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="L826" t="s">
         <v>3644</v>
@@ -50130,7 +50130,7 @@
         <v>3596</v>
       </c>
       <c r="K827" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L827" t="s">
         <v>3643</v>
@@ -50177,7 +50177,7 @@
         <v>3596</v>
       </c>
       <c r="K828" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L828" t="s">
         <v>3643</v>
@@ -50741,7 +50741,7 @@
         <v>3596</v>
       </c>
       <c r="K840" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L840" t="s">
         <v>3646</v>
@@ -50770,7 +50770,7 @@
         <v>3124</v>
       </c>
       <c r="E841" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F841" t="s">
         <v>2201</v>
@@ -50835,7 +50835,7 @@
         <v>3596</v>
       </c>
       <c r="K842" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="L842" t="s">
         <v>3645</v>
@@ -50976,7 +50976,7 @@
         <v>3595</v>
       </c>
       <c r="K845" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L845" t="s">
         <v>3647</v>
@@ -51052,7 +51052,7 @@
         <v>3130</v>
       </c>
       <c r="E847" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F847" t="s">
         <v>2205</v>
@@ -51193,7 +51193,7 @@
         <v>3133</v>
       </c>
       <c r="E850" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F850" t="s">
         <v>1829</v>
@@ -51240,7 +51240,7 @@
         <v>3134</v>
       </c>
       <c r="E851" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F851" t="s">
         <v>2206</v>
@@ -51352,7 +51352,7 @@
         <v>3611</v>
       </c>
       <c r="K853" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="L853" t="s">
         <v>3645</v>
@@ -51916,7 +51916,7 @@
         <v>3596</v>
       </c>
       <c r="K865" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="L865" t="s">
         <v>3645</v>
@@ -52039,7 +52039,7 @@
         <v>3151</v>
       </c>
       <c r="E868" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F868" t="s">
         <v>2209</v>
@@ -52339,7 +52339,7 @@
         <v>3598</v>
       </c>
       <c r="K874" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="L874" t="s">
         <v>3645</v>
@@ -52368,7 +52368,7 @@
         <v>3158</v>
       </c>
       <c r="E875" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="F875" t="s">
         <v>2069</v>
@@ -52415,7 +52415,7 @@
         <v>3159</v>
       </c>
       <c r="E876" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F876" t="s">
         <v>1879</v>
@@ -52509,7 +52509,7 @@
         <v>3161</v>
       </c>
       <c r="E878" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F878" t="s">
         <v>1757</v>
@@ -52603,7 +52603,7 @@
         <v>3163</v>
       </c>
       <c r="E880" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F880" t="s">
         <v>1829</v>
@@ -52856,7 +52856,7 @@
         <v>3596</v>
       </c>
       <c r="K885" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L885" t="s">
         <v>3647</v>
@@ -52932,7 +52932,7 @@
         <v>3170</v>
       </c>
       <c r="E887" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F887" t="s">
         <v>1829</v>
@@ -53308,7 +53308,7 @@
         <v>3178</v>
       </c>
       <c r="E895" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F895" t="s">
         <v>1757</v>
@@ -53373,7 +53373,7 @@
         <v>3596</v>
       </c>
       <c r="K896" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="L896" t="s">
         <v>3646</v>
@@ -53496,7 +53496,7 @@
         <v>3182</v>
       </c>
       <c r="E899" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="F899" t="s">
         <v>1872</v>
@@ -53561,7 +53561,7 @@
         <v>3596</v>
       </c>
       <c r="K900" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L900" t="s">
         <v>3646</v>
@@ -53590,7 +53590,7 @@
         <v>3184</v>
       </c>
       <c r="E901" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="F901" t="s">
         <v>2214</v>
@@ -53608,7 +53608,7 @@
         <v>3596</v>
       </c>
       <c r="K901" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="L901" t="s">
         <v>3643</v>
@@ -53637,7 +53637,7 @@
         <v>3185</v>
       </c>
       <c r="E902" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="F902" t="s">
         <v>2215</v>
@@ -53684,7 +53684,7 @@
         <v>3186</v>
       </c>
       <c r="E903" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F903" t="s">
         <v>2216</v>
@@ -53731,7 +53731,7 @@
         <v>3187</v>
       </c>
       <c r="E904" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="F904" t="s">
         <v>2217</v>
@@ -53919,7 +53919,7 @@
         <v>3190</v>
       </c>
       <c r="E908" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F908" t="s">
         <v>1718</v>
@@ -54031,7 +54031,7 @@
         <v>3615</v>
       </c>
       <c r="K910" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L910" t="s">
         <v>3644</v>
@@ -54295,7 +54295,7 @@
         <v>3198</v>
       </c>
       <c r="E916" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F916" t="s">
         <v>1835</v>
@@ -54577,7 +54577,7 @@
         <v>3204</v>
       </c>
       <c r="E922" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F922" t="s">
         <v>1835</v>
@@ -54624,7 +54624,7 @@
         <v>3205</v>
       </c>
       <c r="E923" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F923" t="s">
         <v>2229</v>
@@ -54671,7 +54671,7 @@
         <v>3206</v>
       </c>
       <c r="E924" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F924" t="s">
         <v>1757</v>
@@ -54783,7 +54783,7 @@
         <v>3593</v>
       </c>
       <c r="K926" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L926" t="s">
         <v>3643</v>
@@ -54812,7 +54812,7 @@
         <v>3209</v>
       </c>
       <c r="E927" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F927" t="s">
         <v>1966</v>
@@ -54830,7 +54830,7 @@
         <v>3593</v>
       </c>
       <c r="K927" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="L927" t="s">
         <v>3644</v>
@@ -54859,7 +54859,7 @@
         <v>3210</v>
       </c>
       <c r="E928" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F928" t="s">
         <v>1930</v>
@@ -54906,7 +54906,7 @@
         <v>2381</v>
       </c>
       <c r="E929" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F929" t="s">
         <v>2230</v>
@@ -54953,7 +54953,7 @@
         <v>3211</v>
       </c>
       <c r="E930" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F930" t="s">
         <v>2230</v>
@@ -55000,7 +55000,7 @@
         <v>3212</v>
       </c>
       <c r="E931" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="F931" t="s">
         <v>2230</v>
@@ -55047,7 +55047,7 @@
         <v>3213</v>
       </c>
       <c r="E932" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F932" t="s">
         <v>2231</v>
@@ -55235,7 +55235,7 @@
         <v>3217</v>
       </c>
       <c r="E936" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F936" t="s">
         <v>1697</v>
@@ -55253,7 +55253,7 @@
         <v>3596</v>
       </c>
       <c r="K936" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L936" t="s">
         <v>3646</v>
@@ -55347,7 +55347,7 @@
         <v>3616</v>
       </c>
       <c r="K938" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L938" t="s">
         <v>3644</v>
@@ -55517,7 +55517,7 @@
         <v>3223</v>
       </c>
       <c r="E942" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F942" t="s">
         <v>2236</v>
@@ -55705,7 +55705,7 @@
         <v>3227</v>
       </c>
       <c r="E946" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F946" t="s">
         <v>2232</v>
@@ -55846,7 +55846,7 @@
         <v>3229</v>
       </c>
       <c r="E949" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F949" t="s">
         <v>1690</v>
@@ -55987,7 +55987,7 @@
         <v>3232</v>
       </c>
       <c r="E952" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="F952" t="s">
         <v>1936</v>
@@ -56052,7 +56052,7 @@
         <v>3596</v>
       </c>
       <c r="K953" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L953" t="s">
         <v>3646</v>
@@ -56081,7 +56081,7 @@
         <v>3234</v>
       </c>
       <c r="E954" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F954" t="s">
         <v>1890</v>
@@ -56128,7 +56128,7 @@
         <v>3235</v>
       </c>
       <c r="E955" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="F955" t="s">
         <v>2242</v>
@@ -56222,7 +56222,7 @@
         <v>3237</v>
       </c>
       <c r="E957" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F957" t="s">
         <v>1757</v>
@@ -56269,7 +56269,7 @@
         <v>3238</v>
       </c>
       <c r="E958" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F958" t="s">
         <v>2243</v>
@@ -56316,7 +56316,7 @@
         <v>3239</v>
       </c>
       <c r="E959" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F959" t="s">
         <v>2244</v>
@@ -56475,7 +56475,7 @@
         <v>3596</v>
       </c>
       <c r="K962" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="L962" t="s">
         <v>3646</v>
@@ -56504,7 +56504,7 @@
         <v>3243</v>
       </c>
       <c r="E963" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F963" t="s">
         <v>1926</v>
@@ -56522,7 +56522,7 @@
         <v>3602</v>
       </c>
       <c r="K963" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="L963" t="s">
         <v>3644</v>
@@ -56551,7 +56551,7 @@
         <v>3244</v>
       </c>
       <c r="E964" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F964" t="s">
         <v>2246</v>
@@ -56851,7 +56851,7 @@
         <v>3593</v>
       </c>
       <c r="K970" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L970" t="s">
         <v>3645</v>
@@ -56880,7 +56880,7 @@
         <v>3251</v>
       </c>
       <c r="E971" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F971" t="s">
         <v>1914</v>
@@ -56898,7 +56898,7 @@
         <v>3596</v>
       </c>
       <c r="K971" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L971" t="s">
         <v>3646</v>
@@ -57112,7 +57112,7 @@
         <v>3256</v>
       </c>
       <c r="E976" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="F976" t="s">
         <v>2252</v>
@@ -57459,7 +57459,7 @@
         <v>3593</v>
       </c>
       <c r="K983" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L983" t="s">
         <v>3643</v>
@@ -57629,7 +57629,7 @@
         <v>3267</v>
       </c>
       <c r="E987" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F987" t="s">
         <v>2113</v>
@@ -57911,7 +57911,7 @@
         <v>3273</v>
       </c>
       <c r="E993" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F993" t="s">
         <v>2261</v>
@@ -58070,7 +58070,7 @@
         <v>3593</v>
       </c>
       <c r="K996" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L996" t="s">
         <v>3643</v>
@@ -58099,7 +58099,7 @@
         <v>3277</v>
       </c>
       <c r="E997" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F997" t="s">
         <v>1879</v>
@@ -58193,7 +58193,7 @@
         <v>3279</v>
       </c>
       <c r="E999" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F999" t="s">
         <v>2196</v>
@@ -58240,7 +58240,7 @@
         <v>3280</v>
       </c>
       <c r="E1000" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F1000" t="s">
         <v>2264</v>
@@ -58305,7 +58305,7 @@
         <v>3593</v>
       </c>
       <c r="K1001" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L1001" t="s">
         <v>3647</v>
@@ -58428,7 +58428,7 @@
         <v>3284</v>
       </c>
       <c r="E1004" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F1004" t="s">
         <v>2131</v>
@@ -58475,7 +58475,7 @@
         <v>3285</v>
       </c>
       <c r="E1005" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F1005" t="s">
         <v>2268</v>
@@ -58540,7 +58540,7 @@
         <v>3595</v>
       </c>
       <c r="K1006" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="L1006" t="s">
         <v>3647</v>
@@ -58616,7 +58616,7 @@
         <v>3288</v>
       </c>
       <c r="E1008" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F1008" t="s">
         <v>2196</v>
@@ -58728,7 +58728,7 @@
         <v>3596</v>
       </c>
       <c r="K1010" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="L1010" t="s">
         <v>3646</v>
@@ -58804,7 +58804,7 @@
         <v>3292</v>
       </c>
       <c r="E1012" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F1012" t="s">
         <v>2226</v>
@@ -58851,7 +58851,7 @@
         <v>3293</v>
       </c>
       <c r="E1013" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="F1013" t="s">
         <v>2105</v>
@@ -58945,7 +58945,7 @@
         <v>3295</v>
       </c>
       <c r="E1015" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F1015" t="s">
         <v>2274</v>
@@ -59010,7 +59010,7 @@
         <v>3595</v>
       </c>
       <c r="K1016" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L1016" t="s">
         <v>3653</v>
@@ -59180,7 +59180,7 @@
         <v>3300</v>
       </c>
       <c r="E1020" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F1020" t="s">
         <v>2253</v>
@@ -59245,7 +59245,7 @@
         <v>3604</v>
       </c>
       <c r="K1021" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L1021" t="s">
         <v>3647</v>
@@ -59274,7 +59274,7 @@
         <v>3302</v>
       </c>
       <c r="E1022" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F1022" t="s">
         <v>2279</v>
@@ -59321,7 +59321,7 @@
         <v>3303</v>
       </c>
       <c r="E1023" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F1023" t="s">
         <v>2280</v>
@@ -59339,7 +59339,7 @@
         <v>3593</v>
       </c>
       <c r="K1023" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L1023" t="s">
         <v>3643</v>
@@ -59368,7 +59368,7 @@
         <v>3304</v>
       </c>
       <c r="E1024" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F1024" t="s">
         <v>2281</v>
@@ -59415,7 +59415,7 @@
         <v>3305</v>
       </c>
       <c r="E1025" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F1025" t="s">
         <v>1778</v>
@@ -59574,7 +59574,7 @@
         <v>3604</v>
       </c>
       <c r="K1028" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L1028" t="s">
         <v>3643</v>
@@ -59621,7 +59621,7 @@
         <v>3596</v>
       </c>
       <c r="K1029" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="L1029" t="s">
         <v>3647</v>
@@ -59650,7 +59650,7 @@
         <v>3310</v>
       </c>
       <c r="E1030" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F1030" t="s">
         <v>1742</v>
@@ -59668,7 +59668,7 @@
         <v>3596</v>
       </c>
       <c r="K1030" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L1030" t="s">
         <v>3646</v>
@@ -59932,7 +59932,7 @@
         <v>3316</v>
       </c>
       <c r="E1036" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F1036" t="s">
         <v>1827</v>
@@ -59950,7 +59950,7 @@
         <v>3596</v>
       </c>
       <c r="K1036" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L1036" t="s">
         <v>3646</v>
@@ -60167,7 +60167,7 @@
         <v>3321</v>
       </c>
       <c r="E1041" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F1041" t="s">
         <v>1772</v>
@@ -60185,7 +60185,7 @@
         <v>3602</v>
       </c>
       <c r="K1041" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L1041" t="s">
         <v>3643</v>
@@ -60214,7 +60214,7 @@
         <v>3322</v>
       </c>
       <c r="E1042" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F1042" t="s">
         <v>2286</v>
@@ -60261,7 +60261,7 @@
         <v>3323</v>
       </c>
       <c r="E1043" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F1043" t="s">
         <v>2287</v>
@@ -60326,7 +60326,7 @@
         <v>3602</v>
       </c>
       <c r="K1044" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L1044" t="s">
         <v>3643</v>
@@ -60402,7 +60402,7 @@
         <v>3326</v>
       </c>
       <c r="E1046" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="F1046" t="s">
         <v>2290</v>
@@ -60420,7 +60420,7 @@
         <v>3596</v>
       </c>
       <c r="K1046" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L1046" t="s">
         <v>3643</v>
@@ -60449,7 +60449,7 @@
         <v>3327</v>
       </c>
       <c r="E1047" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F1047" t="s">
         <v>2136</v>
@@ -60543,7 +60543,7 @@
         <v>3329</v>
       </c>
       <c r="E1049" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F1049" t="s">
         <v>1773</v>
@@ -60561,7 +60561,7 @@
         <v>3596</v>
       </c>
       <c r="K1049" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="L1049" t="s">
         <v>3646</v>
@@ -60778,7 +60778,7 @@
         <v>3334</v>
       </c>
       <c r="E1054" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F1054" t="s">
         <v>2111</v>
@@ -60872,7 +60872,7 @@
         <v>3335</v>
       </c>
       <c r="E1056" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F1056" t="s">
         <v>2109</v>
@@ -61231,7 +61231,7 @@
         <v>3654</v>
       </c>
       <c r="O1063">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:15">
@@ -61342,7 +61342,7 @@
         <v>3345</v>
       </c>
       <c r="E1066" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F1066" t="s">
         <v>1793</v>
@@ -61389,7 +61389,7 @@
         <v>3345</v>
       </c>
       <c r="E1067" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F1067" t="s">
         <v>1793</v>
@@ -61436,7 +61436,7 @@
         <v>3346</v>
       </c>
       <c r="E1068" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="F1068" t="s">
         <v>2125</v>
@@ -61671,7 +61671,7 @@
         <v>3351</v>
       </c>
       <c r="E1073" t="s">
-        <v>3395</v>
+        <v>3382</v>
       </c>
       <c r="F1073" t="s">
         <v>1757</v>
@@ -61765,7 +61765,7 @@
         <v>3353</v>
       </c>
       <c r="E1075" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F1075" t="s">
         <v>1747</v>
@@ -61812,7 +61812,7 @@
         <v>3354</v>
       </c>
       <c r="E1076" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F1076" t="s">
         <v>2298</v>
@@ -61953,7 +61953,7 @@
         <v>3357</v>
       </c>
       <c r="E1079" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F1079" t="s">
         <v>2300</v>
@@ -62047,7 +62047,7 @@
         <v>3359</v>
       </c>
       <c r="E1081" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F1081" t="s">
         <v>2302</v>
@@ -62094,7 +62094,7 @@
         <v>3360</v>
       </c>
       <c r="E1082" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="F1082" t="s">
         <v>2303</v>
@@ -62112,7 +62112,7 @@
         <v>3594</v>
       </c>
       <c r="K1082" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L1082" t="s">
         <v>3644</v>
@@ -62141,7 +62141,7 @@
         <v>3361</v>
       </c>
       <c r="E1083" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F1083" t="s">
         <v>2148</v>
@@ -62188,7 +62188,7 @@
         <v>3362</v>
       </c>
       <c r="E1084" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="F1084" t="s">
         <v>1794</v>
@@ -62253,7 +62253,7 @@
         <v>3595</v>
       </c>
       <c r="K1085" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="L1085" t="s">
         <v>3643</v>
@@ -62282,7 +62282,7 @@
         <v>3364</v>
       </c>
       <c r="E1086" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="F1086" t="s">
         <v>1949</v>
@@ -62423,7 +62423,7 @@
         <v>3365</v>
       </c>
       <c r="E1089" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="F1089" t="s">
         <v>1949</v>
@@ -62723,7 +62723,7 @@
         <v>3598</v>
       </c>
       <c r="K1095" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="L1095" t="s">
         <v>3645</v>
